--- a/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/security/RBAC_RESOURCE/management.app.xlsx
+++ b/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/security/RBAC_RESOURCE/management.app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/security/RBAC_RESOURCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B121BA9-5DE4-2B4B-B33F-5EC816B60FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973573ED-B9F3-1444-9754-C582E4167ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58720" yWindow="-12480" windowWidth="41520" windowHeight="33480" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-51200" yWindow="7180" windowWidth="51200" windowHeight="30480" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="174">
   <si>
     <t>key</t>
   </si>
@@ -464,10 +464,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>perm.app.update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b20331d1-910f-4669-8c98-eec0eab35242</t>
   </si>
   <si>
@@ -583,6 +579,36 @@
   </si>
   <si>
     <t>/api/notice-dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.app.management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a47480e-e8f2-497b-a1f0-356641435e8e</t>
+  </si>
+  <si>
+    <t>548d3537-9aba-4c8d-b3b2-ac97224769d4</t>
+  </si>
+  <si>
+    <t>租户应用列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.apps.usable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.apps.usable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/apps/usable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -797,7 +823,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,17 +878,10 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -928,9 +946,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -968,7 +986,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1074,7 +1092,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1216,7 +1234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1224,453 +1242,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:I61"/>
+  <dimension ref="A3:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="54.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="55.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" s="21" customFormat="1">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:4" s="20" customFormat="1">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" s="21" customFormat="1">
-      <c r="A4" s="22" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:4" s="20" customFormat="1">
+      <c r="A4" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="21" customFormat="1">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:4" s="20" customFormat="1">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="21" customFormat="1">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4" s="20" customFormat="1">
+      <c r="A6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="21" customFormat="1">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:4" s="20" customFormat="1">
+      <c r="A7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="21" customFormat="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4" s="20" customFormat="1">
+      <c r="A8" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:4" s="20" customFormat="1">
+      <c r="A9" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="21" customFormat="1">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:4" s="20" customFormat="1">
+      <c r="A10" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="21" customFormat="1">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" s="20" customFormat="1">
+      <c r="A11" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="21" customFormat="1">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:4" s="20" customFormat="1">
+      <c r="A12" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="21" customFormat="1">
-      <c r="A13" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="1:4" s="20" customFormat="1">
+      <c r="A13" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="21" customFormat="1">
-      <c r="A14" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="25" t="s">
+    <row r="14" spans="1:4" s="20" customFormat="1">
+      <c r="A14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="21" customFormat="1">
-      <c r="A15" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="1:4" s="20" customFormat="1">
+      <c r="A15" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="7" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="10" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="10" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="10" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="10" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="10" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="10" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="10" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="10" t="s">
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="29"/>
+      <c r="E30" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="26"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
@@ -1679,714 +1692,768 @@
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="14" t="str">
-        <f t="shared" ref="B37:B44" si="0">A52</f>
+      <c r="B37" s="13" t="str">
+        <f>A53</f>
         <v>0e82ed16-91bf-4c41-b377-bd04d627c4d2</v>
       </c>
-      <c r="C37" s="14" t="str">
-        <f t="shared" ref="C37:C43" si="1">A21</f>
+      <c r="C37" s="13" t="str">
+        <f t="shared" ref="C37:C43" si="0">A21</f>
         <v>b7dcf5e9-fc97-40f9-84c0-e35548b8f217</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="12" t="str">
-        <f t="shared" ref="G37:G43" si="2">B21</f>
+      <c r="G37" s="11" t="str">
+        <f t="shared" ref="G37:G43" si="1">B21</f>
         <v>单字典读取</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>2</v>
       </c>
-      <c r="I37" s="12"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="14" t="str">
+      <c r="B38" s="13" t="str">
+        <f>A54</f>
+        <v>48c1a5ad-a920-468d-820e-a994e629a83d</v>
+      </c>
+      <c r="C38" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>48c1a5ad-a920-468d-820e-a994e629a83d</v>
-      </c>
-      <c r="C38" s="14" t="str">
+        <v>f6f60dec-efad-4fc7-8715-e1cd58a100e5</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>f6f60dec-efad-4fc7-8715-e1cd58a100e5</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="12" t="s">
+        <v>单类字典读取</v>
+      </c>
+      <c r="H38" s="11">
+        <v>2</v>
+      </c>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="13" t="str">
+        <f>A55</f>
+        <v>e94202f8-ea7e-4aeb-b8f8-5d0dae534490</v>
+      </c>
+      <c r="C39" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>b50b522b-8419-4ef5-869c-653d2af298d6</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>多类字典读取</v>
+      </c>
+      <c r="H39" s="11">
+        <v>2</v>
+      </c>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="13" t="str">
+        <f>A56</f>
+        <v>a1d6e57c-3d50-438c-a1c4-229997d5945d</v>
+      </c>
+      <c r="C40" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>2c6f95c3-6105-4101-b693-4b783e081b5d</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="F40" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>单类别读取</v>
+      </c>
+      <c r="H40" s="11">
+        <v>2</v>
+      </c>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="13" t="str">
+        <f>A57</f>
+        <v>09081a65-0367-47bb-bf96-dab26bc14399</v>
+      </c>
+      <c r="C41" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>7ccd1849-44a8-4002-ac2d-ffc6500370b5</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>单类类别读取</v>
+      </c>
+      <c r="H41" s="11">
+        <v>2</v>
+      </c>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="13" t="str">
+        <f>A58</f>
+        <v>8b12e4a2-eb23-41d7-ac93-1c6b5ef1b6ce</v>
+      </c>
+      <c r="C42" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>baf05351-ed6f-4461-9824-36e171b03c78</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>多类类别读取</v>
+      </c>
+      <c r="H42" s="11">
+        <v>2</v>
+      </c>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="13" t="str">
+        <f>A59</f>
+        <v>f646b0db-c6ae-4691-b897-92a742388d05</v>
+      </c>
+      <c r="C43" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>b582539c-385d-4259-8374-1bd503555cf2</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>模块信息读取</v>
+      </c>
+      <c r="H43" s="11">
+        <v>2</v>
+      </c>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="13" t="str">
+        <f>A60</f>
+        <v>548d3537-9aba-4c8d-b3b2-ac97224769d4</v>
+      </c>
+      <c r="C44" s="13" t="str">
+        <f>A28</f>
+        <v>62e52251-6e19-4ec5-a7d3-cfdf2968d4ca</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" s="11">
+        <v>2</v>
+      </c>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="13" t="str">
+        <f t="shared" ref="B45" si="2">A61</f>
+        <v>848b0174-d492-4d51-a3cb-a3be7f650982</v>
+      </c>
+      <c r="C45" s="13" t="str">
+        <f t="shared" ref="C44:C45" si="3">A28</f>
+        <v>62e52251-6e19-4ec5-a7d3-cfdf2968d4ca</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="11" t="str">
+        <f t="shared" ref="G45" si="4">B28</f>
+        <v>环境信息更新</v>
+      </c>
+      <c r="H45" s="11">
+        <v>8</v>
+      </c>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="13" t="str">
+        <f t="shared" ref="B46" si="5">A62</f>
+        <v>5e432fbd-5ebb-495b-8a0d-e3cca4b28bb0</v>
+      </c>
+      <c r="C46" s="13" t="str">
+        <f>A29</f>
+        <v>524d2d46-82cb-45ef-8f70-3ace75ed978f</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="11" t="str">
+        <f>B29</f>
+        <v>数据源信息读取</v>
+      </c>
+      <c r="H46" s="11">
+        <v>2</v>
+      </c>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="13" t="str">
+        <f t="shared" ref="B47" si="6">A63</f>
+        <v>a4ee2bbc-5952-41ce-81c6-c1b3264705df</v>
+      </c>
+      <c r="C47" s="13" t="str">
+        <f t="shared" ref="C47" si="7">A30</f>
+        <v>4b3d8f78-5cef-4705-b2eb-847b8d38672d</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="11" t="str">
+        <f t="shared" ref="G47" si="8">B30</f>
+        <v>公告信息同步</v>
+      </c>
+      <c r="H47" s="11">
+        <v>8</v>
+      </c>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="11" t="str">
+        <f t="shared" ref="B53:B59" si="9">B21</f>
+        <v>单字典读取</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="11">
+        <v>2</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="11" t="str">
+        <f t="shared" si="9"/>
         <v>单类字典读取</v>
       </c>
-      <c r="H38" s="12">
+      <c r="C54" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="11">
         <v>2</v>
       </c>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>e94202f8-ea7e-4aeb-b8f8-5d0dae534490</v>
-      </c>
-      <c r="C39" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>b50b522b-8419-4ef5-869c-653d2af298d6</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G39" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="11" t="str">
+        <f t="shared" si="9"/>
         <v>多类字典读取</v>
       </c>
-      <c r="H39" s="12">
+      <c r="C55" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" s="11">
         <v>2</v>
       </c>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>a1d6e57c-3d50-438c-a1c4-229997d5945d</v>
-      </c>
-      <c r="C40" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>2c6f95c3-6105-4101-b693-4b783e081b5d</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="11" t="str">
+        <f t="shared" si="9"/>
         <v>单类别读取</v>
       </c>
-      <c r="H40" s="12">
+      <c r="C56" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="11">
         <v>2</v>
       </c>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>09081a65-0367-47bb-bf96-dab26bc14399</v>
-      </c>
-      <c r="C41" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>7ccd1849-44a8-4002-ac2d-ffc6500370b5</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="11" t="str">
+        <f t="shared" si="9"/>
         <v>单类类别读取</v>
       </c>
-      <c r="H41" s="12">
+      <c r="C57" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G57" s="11">
         <v>2</v>
       </c>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>8b12e4a2-eb23-41d7-ac93-1c6b5ef1b6ce</v>
-      </c>
-      <c r="C42" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>baf05351-ed6f-4461-9824-36e171b03c78</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="11" t="str">
+        <f t="shared" si="9"/>
         <v>多类类别读取</v>
       </c>
-      <c r="H42" s="12">
+      <c r="C58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" s="11">
         <v>2</v>
       </c>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>f646b0db-c6ae-4691-b897-92a742388d05</v>
-      </c>
-      <c r="C43" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>b582539c-385d-4259-8374-1bd503555cf2</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="12" t="str">
-        <f t="shared" si="2"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="11" t="str">
+        <f t="shared" si="9"/>
         <v>模块信息读取</v>
       </c>
-      <c r="H43" s="12">
+      <c r="C59" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" s="11">
         <v>2</v>
       </c>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>848b0174-d492-4d51-a3cb-a3be7f650982</v>
-      </c>
-      <c r="C44" s="14" t="str">
-        <f t="shared" ref="C44" si="3">A28</f>
-        <v>62e52251-6e19-4ec5-a7d3-cfdf2968d4ca</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="12" t="str">
-        <f t="shared" ref="G44" si="4">B28</f>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" s="11">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="11" t="str">
+        <f>B28</f>
         <v>环境信息更新</v>
       </c>
-      <c r="H44" s="12">
+      <c r="C61" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" s="11">
         <v>8</v>
       </c>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="14" t="str">
-        <f t="shared" ref="B45" si="5">A60</f>
-        <v>5e432fbd-5ebb-495b-8a0d-e3cca4b28bb0</v>
-      </c>
-      <c r="C45" s="14" t="str">
-        <f t="shared" ref="C45" si="6">A29</f>
-        <v>524d2d46-82cb-45ef-8f70-3ace75ed978f</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45" s="12" t="str">
-        <f t="shared" ref="G45" si="7">B29</f>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="11" t="str">
+        <f>B29</f>
         <v>数据源信息读取</v>
       </c>
-      <c r="H45" s="12">
+      <c r="C62" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62" s="11">
         <v>2</v>
       </c>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="14" t="str">
-        <f t="shared" ref="B46" si="8">A61</f>
-        <v>a4ee2bbc-5952-41ce-81c6-c1b3264705df</v>
-      </c>
-      <c r="C46" s="14" t="str">
-        <f t="shared" ref="C46" si="9">A30</f>
-        <v>4b3d8f78-5cef-4705-b2eb-847b8d38672d</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G46" s="12" t="str">
-        <f t="shared" ref="G46" si="10">B30</f>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="11" t="str">
+        <f>B30</f>
         <v>公告信息同步</v>
       </c>
-      <c r="H46" s="12">
+      <c r="C63" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="11">
         <v>8</v>
       </c>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="12" t="str">
-        <f t="shared" ref="B52:B61" si="11">B21</f>
-        <v>单字典读取</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="12">
-        <v>2</v>
-      </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>单类字典读取</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="12">
-        <v>2</v>
-      </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>多类字典读取</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="12">
-        <v>2</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>单类别读取</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G55" s="12">
-        <v>2</v>
-      </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>单类类别读取</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="12">
-        <v>2</v>
-      </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>多类类别读取</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G57" s="12">
-        <v>2</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>模块信息读取</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G58" s="12">
-        <v>2</v>
-      </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>环境信息更新</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G59" s="12">
-        <v>8</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>数据源信息读取</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="12">
-        <v>2</v>
-      </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>公告信息同步</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" s="12">
-        <v>8</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="C50:I50"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
